--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H2">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I2">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J2">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.038212000000001</v>
+        <v>4.641088</v>
       </c>
       <c r="N2">
-        <v>10.076424</v>
+        <v>9.282176</v>
       </c>
       <c r="O2">
-        <v>0.541302975753609</v>
+        <v>0.6487112077074917</v>
       </c>
       <c r="P2">
-        <v>0.4628976670773892</v>
+        <v>0.6300854746805068</v>
       </c>
       <c r="Q2">
-        <v>6.175568206152001</v>
+        <v>5.601254849792</v>
       </c>
       <c r="R2">
-        <v>24.702272824608</v>
+        <v>22.405019399168</v>
       </c>
       <c r="S2">
-        <v>0.0566022545088689</v>
+        <v>0.2387560523368407</v>
       </c>
       <c r="T2">
-        <v>0.04588291688632411</v>
+        <v>0.2119532601424167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H3">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I3">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J3">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.096807</v>
       </c>
       <c r="O3">
-        <v>0.03928013171652883</v>
+        <v>0.05110231290536694</v>
       </c>
       <c r="P3">
-        <v>0.05038587117157337</v>
+        <v>0.07445260241002785</v>
       </c>
       <c r="Q3">
-        <v>0.448135597674</v>
+        <v>0.4412396064626667</v>
       </c>
       <c r="R3">
-        <v>2.688813586044</v>
+        <v>2.647437638776001</v>
       </c>
       <c r="S3">
-        <v>0.004107392924388584</v>
+        <v>0.01880804023362721</v>
       </c>
       <c r="T3">
-        <v>0.004994301988616049</v>
+        <v>0.02504496999378418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H4">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I4">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J4">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1221273333333334</v>
+        <v>2.09026</v>
       </c>
       <c r="N4">
-        <v>0.366382</v>
+        <v>4.18052</v>
       </c>
       <c r="O4">
-        <v>0.01312129957099587</v>
+        <v>0.2921675023233047</v>
       </c>
       <c r="P4">
-        <v>0.01683110725185324</v>
+        <v>0.2837788174466151</v>
       </c>
       <c r="Q4">
-        <v>0.149697090324</v>
+        <v>2.52270134984</v>
       </c>
       <c r="R4">
-        <v>0.8981825419440002</v>
+        <v>10.09080539936</v>
       </c>
       <c r="S4">
-        <v>0.001372050720339438</v>
+        <v>0.1075312999791438</v>
       </c>
       <c r="T4">
-        <v>0.001668317535530978</v>
+        <v>0.09545981923749086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H5">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I5">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J5">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.1163335</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N5">
-        <v>2.232667</v>
+        <v>0.035261</v>
       </c>
       <c r="O5">
-        <v>0.1199383125369558</v>
+        <v>0.001642876691483683</v>
       </c>
       <c r="P5">
-        <v>0.102565785804634</v>
+        <v>0.002393559863841124</v>
       </c>
       <c r="Q5">
-        <v>1.368341322291</v>
+        <v>0.01418531224133334</v>
       </c>
       <c r="R5">
-        <v>5.473365289164001</v>
+        <v>0.085111873448</v>
       </c>
       <c r="S5">
-        <v>0.01254155102718512</v>
+        <v>0.0006046554286013209</v>
       </c>
       <c r="T5">
-        <v>0.0101664315034618</v>
+        <v>0.0008051650718411023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H6">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I6">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J6">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.591826</v>
+        <v>0.04561666666666667</v>
       </c>
       <c r="N6">
-        <v>7.775478</v>
+        <v>0.13685</v>
       </c>
       <c r="O6">
-        <v>0.2784644882818692</v>
+        <v>0.00637610037235308</v>
       </c>
       <c r="P6">
-        <v>0.3571952338063149</v>
+        <v>0.009289545599009042</v>
       </c>
       <c r="Q6">
-        <v>3.176920352196</v>
+        <v>0.05505402513333334</v>
       </c>
       <c r="R6">
-        <v>19.061522113176</v>
+        <v>0.3303241508</v>
       </c>
       <c r="S6">
-        <v>0.02911810675983932</v>
+        <v>0.002346703026122083</v>
       </c>
       <c r="T6">
-        <v>0.03540557749708046</v>
+        <v>0.003124892659920447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.225746</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H7">
-        <v>2.451492</v>
+        <v>1.850885</v>
       </c>
       <c r="I7">
-        <v>0.1045666790027646</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J7">
-        <v>0.09912108042370671</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07346266666666666</v>
+        <v>4.641088</v>
       </c>
       <c r="N7">
-        <v>0.220388</v>
+        <v>9.282176</v>
       </c>
       <c r="O7">
-        <v>0.00789279214004137</v>
+        <v>0.6487112077074917</v>
       </c>
       <c r="P7">
-        <v>0.01012433488823531</v>
+        <v>0.6300854746805068</v>
       </c>
       <c r="Q7">
-        <v>0.090046569816</v>
+        <v>2.863373387626666</v>
       </c>
       <c r="R7">
-        <v>0.540279418896</v>
+        <v>17.18024032576</v>
       </c>
       <c r="S7">
-        <v>0.0008253230621432494</v>
+        <v>0.1220526015561488</v>
       </c>
       <c r="T7">
-        <v>0.001003535012693312</v>
+        <v>0.1625264358043925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J8">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.038212000000001</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N8">
-        <v>10.076424</v>
+        <v>1.096807</v>
       </c>
       <c r="O8">
-        <v>0.541302975753609</v>
+        <v>0.05110231290536694</v>
       </c>
       <c r="P8">
-        <v>0.4628976670773892</v>
+        <v>0.07445260241002785</v>
       </c>
       <c r="Q8">
-        <v>3.10838367254</v>
+        <v>0.2255626249105556</v>
       </c>
       <c r="R8">
-        <v>18.65030203524</v>
+        <v>2.030063624195</v>
       </c>
       <c r="S8">
-        <v>0.0284899328889367</v>
+        <v>0.009614710153811271</v>
       </c>
       <c r="T8">
-        <v>0.03464176208657584</v>
+        <v>0.01920456286061678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J9">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3656023333333334</v>
+        <v>2.09026</v>
       </c>
       <c r="N9">
-        <v>1.096807</v>
+        <v>4.18052</v>
       </c>
       <c r="O9">
-        <v>0.03928013171652883</v>
+        <v>0.2921675023233047</v>
       </c>
       <c r="P9">
-        <v>0.05038587117157337</v>
+        <v>0.2837788174466151</v>
       </c>
       <c r="Q9">
-        <v>0.2255626249105556</v>
+        <v>1.289610293366666</v>
       </c>
       <c r="R9">
-        <v>2.030063624195</v>
+        <v>7.737661760199999</v>
       </c>
       <c r="S9">
-        <v>0.002067397310931999</v>
+        <v>0.0549702291636693</v>
       </c>
       <c r="T9">
-        <v>0.003770715399519809</v>
+        <v>0.07319889381638303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J10">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1221273333333334</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N10">
-        <v>0.366382</v>
+        <v>0.035261</v>
       </c>
       <c r="O10">
-        <v>0.01312129957099587</v>
+        <v>0.001642876691483683</v>
       </c>
       <c r="P10">
-        <v>0.01683110725185324</v>
+        <v>0.002393559863841124</v>
       </c>
       <c r="Q10">
-        <v>0.07534788311888889</v>
+        <v>0.007251561776111111</v>
       </c>
       <c r="R10">
-        <v>0.6781309480700001</v>
+        <v>0.065264055985</v>
       </c>
       <c r="S10">
-        <v>0.0006906020490149022</v>
+        <v>0.0003091011406141092</v>
       </c>
       <c r="T10">
-        <v>0.001259585551064925</v>
+        <v>0.0006174031447904765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J11">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.1163335</v>
+        <v>0.04561666666666667</v>
       </c>
       <c r="N11">
-        <v>2.232667</v>
+        <v>0.13685</v>
       </c>
       <c r="O11">
-        <v>0.1199383125369558</v>
+        <v>0.00637610037235308</v>
       </c>
       <c r="P11">
-        <v>0.102565785804634</v>
+        <v>0.009289545599009042</v>
       </c>
       <c r="Q11">
-        <v>0.6887349767158334</v>
+        <v>0.02814373469444444</v>
       </c>
       <c r="R11">
-        <v>4.132409860295</v>
+        <v>0.25329361225</v>
       </c>
       <c r="S11">
-        <v>0.00631260981012149</v>
+        <v>0.001199639576105069</v>
       </c>
       <c r="T11">
-        <v>0.007675691200821741</v>
+        <v>0.002396177657031187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,117 +1154,117 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6169616666666666</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H12">
-        <v>1.850885</v>
+        <v>0.000793</v>
       </c>
       <c r="I12">
-        <v>0.05263213794321497</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J12">
-        <v>0.07483676101738548</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.591826</v>
+        <v>4.641088</v>
       </c>
       <c r="N12">
-        <v>7.775478</v>
+        <v>9.282176</v>
       </c>
       <c r="O12">
-        <v>0.2784644882818692</v>
+        <v>0.6487112077074917</v>
       </c>
       <c r="P12">
-        <v>0.3571952338063149</v>
+        <v>0.6300854746805068</v>
       </c>
       <c r="Q12">
-        <v>1.59905728867</v>
+        <v>0.001226794261333333</v>
       </c>
       <c r="R12">
-        <v>14.39151559803</v>
+        <v>0.007360765567999999</v>
       </c>
       <c r="S12">
-        <v>0.01465618135953811</v>
+        <v>5.229266703983555E-05</v>
       </c>
       <c r="T12">
-        <v>0.02673133434891232</v>
+        <v>6.963342595184643E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.000793</v>
+      </c>
+      <c r="I13">
+        <v>8.061008722916141E-05</v>
+      </c>
+      <c r="J13">
+        <v>0.0001105142536211535</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6169616666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.850885</v>
-      </c>
-      <c r="I13">
-        <v>0.05263213794321497</v>
-      </c>
-      <c r="J13">
-        <v>0.07483676101738548</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07346266666666666</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N13">
-        <v>0.220388</v>
+        <v>1.096807</v>
       </c>
       <c r="O13">
-        <v>0.00789279214004137</v>
+        <v>0.05110231290536694</v>
       </c>
       <c r="P13">
-        <v>0.01012433488823531</v>
+        <v>0.07445260241002785</v>
       </c>
       <c r="Q13">
-        <v>0.04532364926444444</v>
+        <v>9.664088344444445E-05</v>
       </c>
       <c r="R13">
-        <v>0.40791284338</v>
+        <v>0.000869767951</v>
       </c>
       <c r="S13">
-        <v>0.0004154145246717803</v>
+        <v>4.119361900913529E-06</v>
       </c>
       <c r="T13">
-        <v>0.0007576724304908444</v>
+        <v>8.228073785496723E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J14">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.038212000000001</v>
+        <v>2.09026</v>
       </c>
       <c r="N14">
-        <v>10.076424</v>
+        <v>4.18052</v>
       </c>
       <c r="O14">
-        <v>0.541302975753609</v>
+        <v>0.2921675023233047</v>
       </c>
       <c r="P14">
-        <v>0.4628976670773892</v>
+        <v>0.2837788174466151</v>
       </c>
       <c r="Q14">
-        <v>46.393863823482</v>
+        <v>0.0005525253933333332</v>
       </c>
       <c r="R14">
-        <v>185.575455293928</v>
+        <v>0.003315152359999999</v>
       </c>
       <c r="S14">
-        <v>0.4252235907896795</v>
+        <v>2.355164784780781E-05</v>
       </c>
       <c r="T14">
-        <v>0.3446947271552601</v>
+        <v>3.136160420360625E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J15">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.3656023333333334</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N15">
-        <v>1.096807</v>
+        <v>0.035261</v>
       </c>
       <c r="O15">
-        <v>0.03928013171652883</v>
+        <v>0.001642876691483683</v>
       </c>
       <c r="P15">
-        <v>0.05038587117157337</v>
+        <v>0.002393559863841124</v>
       </c>
       <c r="Q15">
-        <v>3.366611977863167</v>
+        <v>3.106885888888889E-06</v>
       </c>
       <c r="R15">
-        <v>20.199671867179</v>
+        <v>2.7961973E-05</v>
       </c>
       <c r="S15">
-        <v>0.03085672793861896</v>
+        <v>1.324324334072558E-07</v>
       </c>
       <c r="T15">
-        <v>0.03751961902426688</v>
+        <v>2.645224818499517E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H16">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I16">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J16">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1221273333333334</v>
+        <v>0.04561666666666667</v>
       </c>
       <c r="N16">
-        <v>0.366382</v>
+        <v>0.13685</v>
       </c>
       <c r="O16">
-        <v>0.01312129957099587</v>
+        <v>0.00637610037235308</v>
       </c>
       <c r="P16">
-        <v>0.01683110725185324</v>
+        <v>0.009289545599009042</v>
       </c>
       <c r="Q16">
-        <v>1.124597153075667</v>
+        <v>1.205800555555555E-05</v>
       </c>
       <c r="R16">
-        <v>6.747582918454</v>
+        <v>0.00010852205</v>
       </c>
       <c r="S16">
-        <v>0.01030751052428285</v>
+        <v>5.139780071972703E-07</v>
       </c>
       <c r="T16">
-        <v>0.01253321054419688</v>
+        <v>1.026627198354156E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.208398499999999</v>
+        <v>1.4550495</v>
       </c>
       <c r="H17">
-        <v>18.416797</v>
+        <v>2.910099</v>
       </c>
       <c r="I17">
-        <v>0.7855556127281174</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J17">
-        <v>0.744645634815076</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.1163335</v>
+        <v>4.641088</v>
       </c>
       <c r="N17">
-        <v>2.232667</v>
+        <v>9.282176</v>
       </c>
       <c r="O17">
-        <v>0.1199383125369558</v>
+        <v>0.6487112077074917</v>
       </c>
       <c r="P17">
-        <v>0.102565785804634</v>
+        <v>0.6300854746805068</v>
       </c>
       <c r="Q17">
-        <v>10.27964372689975</v>
+        <v>6.753012773855999</v>
       </c>
       <c r="R17">
-        <v>41.118574907599</v>
+        <v>27.012051095424</v>
       </c>
       <c r="S17">
-        <v>0.09421821459454478</v>
+        <v>0.2878502611474623</v>
       </c>
       <c r="T17">
-        <v>0.07637516468079877</v>
+        <v>0.2555361453077457</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.208398499999999</v>
+        <v>1.4550495</v>
       </c>
       <c r="H18">
-        <v>18.416797</v>
+        <v>2.910099</v>
       </c>
       <c r="I18">
-        <v>0.7855556127281174</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J18">
-        <v>0.744645634815076</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.591826</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N18">
-        <v>7.775478</v>
+        <v>1.096807</v>
       </c>
       <c r="O18">
-        <v>0.2784644882818692</v>
+        <v>0.05110231290536694</v>
       </c>
       <c r="P18">
-        <v>0.3571952338063149</v>
+        <v>0.07445260241002785</v>
       </c>
       <c r="Q18">
-        <v>23.866566650661</v>
+        <v>0.5319694923154999</v>
       </c>
       <c r="R18">
-        <v>143.199399903966</v>
+        <v>3.191816953893</v>
       </c>
       <c r="S18">
-        <v>0.2187493417152854</v>
+        <v>0.02267544315602755</v>
       </c>
       <c r="T18">
-        <v>0.2659838716306228</v>
+        <v>0.0301948414818414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.208398499999999</v>
+        <v>1.4550495</v>
       </c>
       <c r="H19">
-        <v>18.416797</v>
+        <v>2.910099</v>
       </c>
       <c r="I19">
-        <v>0.7855556127281174</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J19">
-        <v>0.744645634815076</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07346266666666666</v>
+        <v>2.09026</v>
       </c>
       <c r="N19">
-        <v>0.220388</v>
+        <v>4.18052</v>
       </c>
       <c r="O19">
-        <v>0.00789279214004137</v>
+        <v>0.2921675023233047</v>
       </c>
       <c r="P19">
-        <v>0.01012433488823531</v>
+        <v>0.2837788174466151</v>
       </c>
       <c r="Q19">
-        <v>0.6764735095393333</v>
+        <v>3.041431767869999</v>
       </c>
       <c r="R19">
-        <v>4.058841057236</v>
+        <v>12.16572707148</v>
       </c>
       <c r="S19">
-        <v>0.006200227165705867</v>
+        <v>0.1296424215326437</v>
       </c>
       <c r="T19">
-        <v>0.007539041779930407</v>
+        <v>0.1150887427885376</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H20">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I20">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J20">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>5.038212000000001</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N20">
-        <v>10.076424</v>
+        <v>0.035261</v>
       </c>
       <c r="O20">
-        <v>0.541302975753609</v>
+        <v>0.001642876691483683</v>
       </c>
       <c r="P20">
-        <v>0.4628976670773892</v>
+        <v>0.002393559863841124</v>
       </c>
       <c r="Q20">
-        <v>3.380846818692001</v>
+        <v>0.0171021668065</v>
       </c>
       <c r="R20">
-        <v>20.285080912152</v>
+        <v>0.102613000839</v>
       </c>
       <c r="S20">
-        <v>0.03098719756612373</v>
+        <v>0.0007289876898348454</v>
       </c>
       <c r="T20">
-        <v>0.03767826094922906</v>
+        <v>0.0009707271247276953</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,303 +1712,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H21">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I21">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J21">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3656023333333334</v>
+        <v>0.04561666666666667</v>
       </c>
       <c r="N21">
-        <v>1.096807</v>
+        <v>0.13685</v>
       </c>
       <c r="O21">
-        <v>0.03928013171652883</v>
+        <v>0.00637610037235308</v>
       </c>
       <c r="P21">
-        <v>0.05038587117157337</v>
+        <v>0.009289545599009042</v>
       </c>
       <c r="Q21">
-        <v>0.2453341553623334</v>
+        <v>0.066374508025</v>
       </c>
       <c r="R21">
-        <v>2.208007398261</v>
+        <v>0.3982470481499999</v>
       </c>
       <c r="S21">
-        <v>0.00224861354258928</v>
+        <v>0.002829243792118731</v>
       </c>
       <c r="T21">
-        <v>0.004101234759170623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6710410000000001</v>
-      </c>
-      <c r="H22">
-        <v>2.013123</v>
-      </c>
-      <c r="I22">
-        <v>0.0572455703259029</v>
-      </c>
-      <c r="J22">
-        <v>0.08139652374383181</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1221273333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.366382</v>
-      </c>
-      <c r="O22">
-        <v>0.01312129957099587</v>
-      </c>
-      <c r="P22">
-        <v>0.01683110725185324</v>
-      </c>
-      <c r="Q22">
-        <v>0.08195244788733336</v>
-      </c>
-      <c r="R22">
-        <v>0.7375720309860002</v>
-      </c>
-      <c r="S22">
-        <v>0.0007511362773586837</v>
-      </c>
-      <c r="T22">
-        <v>0.001369993621060452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6710410000000001</v>
-      </c>
-      <c r="H23">
-        <v>2.013123</v>
-      </c>
-      <c r="I23">
-        <v>0.0572455703259029</v>
-      </c>
-      <c r="J23">
-        <v>0.08139652374383181</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.1163335</v>
-      </c>
-      <c r="N23">
-        <v>2.232667</v>
-      </c>
-      <c r="O23">
-        <v>0.1199383125369558</v>
-      </c>
-      <c r="P23">
-        <v>0.102565785804634</v>
-      </c>
-      <c r="Q23">
-        <v>0.7491055481735002</v>
-      </c>
-      <c r="R23">
-        <v>4.494633289041001</v>
-      </c>
-      <c r="S23">
-        <v>0.006865937105104427</v>
-      </c>
-      <c r="T23">
-        <v>0.008348498419551658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6710410000000001</v>
-      </c>
-      <c r="H24">
-        <v>2.013123</v>
-      </c>
-      <c r="I24">
-        <v>0.0572455703259029</v>
-      </c>
-      <c r="J24">
-        <v>0.08139652374383181</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.591826</v>
-      </c>
-      <c r="N24">
-        <v>7.775478</v>
-      </c>
-      <c r="O24">
-        <v>0.2784644882818692</v>
-      </c>
-      <c r="P24">
-        <v>0.3571952338063149</v>
-      </c>
-      <c r="Q24">
-        <v>1.739221510866</v>
-      </c>
-      <c r="R24">
-        <v>15.652993597794</v>
-      </c>
-      <c r="S24">
-        <v>0.01594085844720631</v>
-      </c>
-      <c r="T24">
-        <v>0.02907445032969927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6710410000000001</v>
-      </c>
-      <c r="H25">
-        <v>2.013123</v>
-      </c>
-      <c r="I25">
-        <v>0.0572455703259029</v>
-      </c>
-      <c r="J25">
-        <v>0.08139652374383181</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.07346266666666666</v>
-      </c>
-      <c r="N25">
-        <v>0.220388</v>
-      </c>
-      <c r="O25">
-        <v>0.00789279214004137</v>
-      </c>
-      <c r="P25">
-        <v>0.01012433488823531</v>
-      </c>
-      <c r="Q25">
-        <v>0.04929646130266667</v>
-      </c>
-      <c r="R25">
-        <v>0.443668151724</v>
-      </c>
-      <c r="S25">
-        <v>0.0004518273875204719</v>
-      </c>
-      <c r="T25">
-        <v>0.0008240856651207506</v>
+        <v>0.003767448654859054</v>
       </c>
     </row>
   </sheetData>
